--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-853512.4536671536</v>
+        <v>-815990.451909728</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17416836.60718619</v>
+        <v>16775128.44796223</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9726806.950094011</v>
+        <v>9751589.881996246</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>309.5241956564584</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>293.5269294943723</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>9.823290494404066</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>103.2357408792232</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.07950026194645</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>38.92859933434407</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>177.7309327841168</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1102,19 +1102,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>63.37161101631722</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>157.8824880649888</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,13 +1133,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>107.3523494015076</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>208.6767246948994</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>78.47678022721476</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>1.558148425901065</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,7 +1345,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>113.4747708414679</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,13 +1379,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>180.028388249021</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.2146311366277</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>86.2022861485586</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556936</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>84.01976803536532</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226561</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655145</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.38971918733537</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,10 +2299,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>129.713962706849</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199178</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.6990987647609</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
     <row r="32">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,13 +3433,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
         <v>71.53763939432403</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934269</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432433</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413112</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496634</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385524</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545402</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F44" t="n">
-        <v>407.3530449561368</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242212</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724684</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925385</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169443</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267642</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043295</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X44" t="n">
-        <v>398.7153284477349</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245956</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930497</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628598</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.983502531745</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730226</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591138</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856831</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277817</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432666</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934327</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762358</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185818</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006782</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W46" t="n">
-        <v>253.0704300308239</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811741</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402853</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.1887779922017</v>
+        <v>1261.79616242059</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>823.6536896040129</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>1400.691582106304</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W2" t="n">
-        <v>995.8361275173373</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X2" t="n">
-        <v>980.7340681370521</v>
+        <v>2096.381856605844</v>
       </c>
       <c r="Y2" t="n">
-        <v>572.4479444367055</v>
+        <v>1688.095732905497</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.5714734656729</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C4" t="n">
-        <v>473.5714734656729</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D4" t="n">
-        <v>473.5714734656729</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E4" t="n">
-        <v>303.8134697164102</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F4" t="n">
-        <v>303.8134697164102</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G4" t="n">
-        <v>138.2221947422378</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X4" t="n">
-        <v>892.8097628705518</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.39009218466</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>1581.337547761512</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.75587349878</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947.1238364150125</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>774.5621248982375</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1611.753880486479</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1611.753880486479</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1611.753880486479</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V7" t="n">
-        <v>1611.753880486479</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W7" t="n">
-        <v>1611.753880486479</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1366.362125819891</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1138.942455134</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>644.6147314862866</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C8" t="n">
-        <v>206.4722586697099</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D8" t="n">
-        <v>174.6028778845585</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>66.16616131737912</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>42.33913576699091</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>42.33913576699091</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>42.33913576699091</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>42.33913576699091</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>477.5938232199088</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>899.9091133634637</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>899.9091133634637</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>899.9091133634637</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>899.9091133634637</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1423.855918479976</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1423.855918479976</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1947.802723596489</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2116.956788349546</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2116.956788349546</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.956788349546</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1857.734485666562</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1495.117535600389</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1090.262081011422</v>
+        <v>2326.371599383719</v>
       </c>
       <c r="X8" t="n">
-        <v>1075.160021631137</v>
+        <v>1907.229135963029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1070.914301971194</v>
+        <v>1696.444565564141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.5108807582837</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>442.054419594926</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>346.9641307414793</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>252.843716068433</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>169.4598776845946</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>84.07478795077844</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>42.33913576699091</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>68.4028089274485</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>392.9611338936608</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>392.9611338936608</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>392.9611338936608</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>392.9611338936608</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>392.9611338936608</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>540.5125089184352</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.459314034948</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1588.40611915146</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1705.5788972458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1642.123459694183</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1511.944816024785</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1335.608269024753</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1136.490751086752</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>951.1679968199462</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>796.3005610588261</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.8147818380469</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209.7910158643582</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>209.7910158643582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>43.91302306588088</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>43.91302306588088</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>42.33913576699091</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>42.33913576699091</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>42.33913576699091</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>42.33913576699091</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>42.33913576699091</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>42.33913576699091</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>460.549017534952</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>920.032884715865</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1362.29168787351</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1781.960937099291</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2116.956788349546</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2116.956788349546</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2116.956788349546</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1957.715419647542</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1711.835973225997</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1433.402972479103</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>1146.447464349533</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>874.4210599358246</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>629.0293052692371</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.6096345833453</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1951.751633866352</v>
+        <v>1668.01784842906</v>
       </c>
       <c r="C11" t="n">
-        <v>1951.751633866352</v>
+        <v>1229.875375612483</v>
       </c>
       <c r="D11" t="n">
-        <v>1515.841849040796</v>
+        <v>793.9655907869274</v>
       </c>
       <c r="E11" t="n">
-        <v>1082.067104199091</v>
+        <v>360.1908459452226</v>
       </c>
       <c r="F11" t="n">
-        <v>654.1996746082991</v>
+        <v>360.1908459452226</v>
       </c>
       <c r="G11" t="n">
-        <v>252.801843231563</v>
+        <v>360.1908459452226</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95498641437</v>
+        <v>71.06069138843887</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="J11" t="n">
-        <v>70.53819704151</v>
+        <v>505.8985894684968</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2808145061362</v>
+        <v>1340.248881426675</v>
       </c>
       <c r="L11" t="n">
-        <v>1279.191002894822</v>
+        <v>1942.323962624504</v>
       </c>
       <c r="M11" t="n">
-        <v>1279.191002894822</v>
+        <v>1942.323962624504</v>
       </c>
       <c r="N11" t="n">
-        <v>1279.191002894822</v>
+        <v>1942.323962624504</v>
       </c>
       <c r="O11" t="n">
-        <v>2152.101191283508</v>
+        <v>2816.542250067292</v>
       </c>
       <c r="P11" t="n">
-        <v>2980.411066116905</v>
+        <v>2816.542250067292</v>
       </c>
       <c r="Q11" t="n">
-        <v>3526.9098520755</v>
+        <v>3363.041036025887</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.9098520755</v>
+        <v>3532.195100778944</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259337</v>
+        <v>3448.543226962781</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.257978259337</v>
+        <v>3228.475999835819</v>
       </c>
       <c r="U11" t="n">
-        <v>3184.035675576354</v>
+        <v>2969.253697152836</v>
       </c>
       <c r="V11" t="n">
-        <v>3184.035675576354</v>
+        <v>2606.636747086663</v>
       </c>
       <c r="W11" t="n">
-        <v>2779.180220987388</v>
+        <v>2201.781292497696</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.037757566698</v>
+        <v>1782.638829077007</v>
       </c>
       <c r="Y11" t="n">
-        <v>1951.751633866352</v>
+        <v>1782.638829077007</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328028</v>
+        <v>576.8156470068717</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694451</v>
+        <v>470.359185843514</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159983</v>
+        <v>375.2688969900672</v>
       </c>
       <c r="E12" t="n">
-        <v>281.042777342952</v>
+        <v>281.1484823170209</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591136</v>
+        <v>197.7646439331825</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252975</v>
+        <v>112.3795541993664</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="I12" t="n">
-        <v>96.6018702019676</v>
+        <v>96.70757517603647</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681799</v>
+        <v>421.2659001422488</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1616.710885400048</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1733.883663494388</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1670.428225942771</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1540.249582273372</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1363.913035273341</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1164.79551733534</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944652</v>
+        <v>979.4727630685341</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333452</v>
+        <v>824.6053273074141</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.013843112566</v>
+        <v>698.1195480866348</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.596357653391</v>
+        <v>921.1399390925101</v>
       </c>
       <c r="C13" t="n">
-        <v>977.0346461366163</v>
+        <v>748.578227575735</v>
       </c>
       <c r="D13" t="n">
-        <v>811.156653338139</v>
+        <v>582.7002347772577</v>
       </c>
       <c r="E13" t="n">
-        <v>641.3986495888763</v>
+        <v>412.942231027995</v>
       </c>
       <c r="F13" t="n">
-        <v>464.6915955506325</v>
+        <v>236.2351769897512</v>
       </c>
       <c r="G13" t="n">
-        <v>299.1003205764601</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668347</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151</v>
+        <v>70.64390201557887</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>157.2235871802687</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773354</v>
+        <v>431.9820417514043</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452964</v>
+        <v>850.1919235193653</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1309.675790700278</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1751.934593857923</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2171.603843083704</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2519.110737054046</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="S13" t="n">
-        <v>2527.956438242306</v>
+        <v>2528.062143216375</v>
       </c>
       <c r="T13" t="n">
-        <v>2282.076991820762</v>
+        <v>2282.18269679483</v>
       </c>
       <c r="U13" t="n">
-        <v>2003.643991073867</v>
+        <v>2003.749696047935</v>
       </c>
       <c r="V13" t="n">
-        <v>1716.688482944297</v>
+        <v>1716.794187918366</v>
       </c>
       <c r="W13" t="n">
-        <v>1444.662078530589</v>
+        <v>1585.769983163977</v>
       </c>
       <c r="X13" t="n">
-        <v>1444.662078530589</v>
+        <v>1340.378228497389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1341.414976372379</v>
+        <v>1112.958557811497</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,31 +5279,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
         <v>4809.322912595856</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937635</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>703.2638400820881</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>537.3858472836108</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>367.6278435343481</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9207894961043</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5501,64 +5501,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688195</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321679</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.13136353223</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968676</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538983</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538983</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538983</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
         <v>406.885835245268</v>
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5616,16 +5616,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
         <v>1196.412455590541</v>
@@ -5634,10 +5634,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3346.878440713107</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>3174.316729196332</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>3008.438736397854</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>2838.680732648592</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>2661.973678610348</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>2496.382403636176</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636176</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636176</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800865</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372009</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.93042513997</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320883</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478527</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.34234470431</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674651</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538983</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5113.042013538983</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>5094.80284449629</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>4848.923398074746</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>4570.490397327851</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>4283.534889198282</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>4011.508484784573</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>3766.116730117986</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>3538.697059432094</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993936</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827332</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785927</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
         <v>406.885835245268</v>
@@ -5820,10 +5820,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
         <v>128.3245134312372</v>
@@ -5853,16 +5853,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
         <v>1196.412455590541</v>
@@ -5871,10 +5871,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>920.0973401405614</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405614</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545775</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804052</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2668.021743923745</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2422.142297502201</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2143.709296755306</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1856.753788625736</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1584.727384212028</v>
+        <v>1617.386921419173</v>
       </c>
       <c r="X22" t="n">
-        <v>1339.33562954544</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.915958859548</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
         <v>242.1630145804051</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2613.163784754629</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2367.284338333084</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2088.851337586189</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1801.895829456619</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1529.869425042911</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1284.477670376323</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -7078,7 +7078,7 @@
         <v>760.8807595030279</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F37" t="n">
         <v>447.2151165412737</v>
@@ -7099,7 +7099,7 @@
         <v>495.7456864773249</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>930.0289214806459</v>
       </c>
       <c r="M37" t="n">
         <v>1405.586141896919</v>
@@ -7117,7 +7117,7 @@
         <v>2847.507276056459</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7129,7 +7129,7 @@
         <v>2208.134468542892</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W37" t="n">
         <v>1681.951970825366</v>
@@ -7151,55 +7151,55 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>3164.024797097406</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>4289.755780533854</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790893</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790893</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7214,10 +7214,10 @@
         <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.82832657168</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463123</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882667</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7351,31 +7351,31 @@
         <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
         <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>444.7825334645009</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1279.132825422679</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790891</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D43" t="n">
         <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7597,13 +7597,13 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
         <v>1677.257834230404</v>
@@ -7631,13 +7631,13 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197253</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
         <v>97.56670367581783</v>
@@ -7646,43 +7646,43 @@
         <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>444.7825334645009</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.132825422679</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387604</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673519</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
         <v>3629.919912574025</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397568</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936693</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080683</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716818</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463144</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850183</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.826945488269</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758677</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461498</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579746</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290619</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281951</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947932</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231239</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230407</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976696</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703679</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>426.581101155106</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>529.2391970873864</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873864</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>149.0417929543175</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>529.2391970873864</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873864</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>338.3796477275303</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>339.1339570349759</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.727463018875</v>
+        <v>608.1566476745747</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188749</v>
+        <v>883.048775194736</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>903.3699580700795</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465049</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9179,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352469</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,10 +9653,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>594.5246497545859</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.7230603926092</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926092</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>5.127748292078334</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>308.5618039385908</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>106.2104647621949</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.9308428424051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-5.420432427308324e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.63380825304871</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>90.92021546249602</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627177</v>
+        <v>157.6489550149792</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.861296157347123e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>107.2592358276479</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>139.5921776627224</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>52.94985625022238</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-2.756905814749189e-12</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>842153.2492142777</v>
+        <v>851507.9934952363</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>842153.2492142777</v>
+        <v>852130.4508604116</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>846458.1734080502</v>
+        <v>852130.4508604116</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657912.3542531831</v>
+        <v>658576.4572426879</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857213.3085283025</v>
+        <v>857213.3085283024</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857213.3085283028</v>
+        <v>857213.3085283026</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857213.3085283025</v>
+        <v>857213.3085283024</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857213.3085283025</v>
+        <v>857213.3085283024</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869530.7605643407</v>
+        <v>869530.7605643406</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120633.1469753419</v>
+        <v>120541.3090034308</v>
       </c>
       <c r="C2" t="n">
         <v>120633.1469753419</v>
@@ -26320,7 +26320,7 @@
         <v>120633.1469753419</v>
       </c>
       <c r="E2" t="n">
-        <v>90981.87670404529</v>
+        <v>91073.71467595646</v>
       </c>
       <c r="F2" t="n">
         <v>118542.9564309043</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32598.54956978483</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105245.241465292</v>
+        <v>64353.58184153319</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238714</v>
+        <v>113238.4356313706</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>26560.21475442298</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100830.0540941886</v>
+        <v>66700.39569712253</v>
       </c>
       <c r="N3" t="n">
-        <v>82750.13805526402</v>
+        <v>82426.51302796679</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.080024958355352e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>147777.2249539944</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>173984.0524711528</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>41876.27333020711</v>
+        <v>41918.54363890117</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.8251096228</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962278</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="K4" t="n">
         <v>54561.82510962275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>59904.18292625602</v>
+        <v>59904.18292625603</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926988</v>
       </c>
       <c r="O4" t="n">
         <v>68372.72551926989</v>
       </c>
       <c r="P4" t="n">
-        <v>68372.72551927002</v>
+        <v>68372.72551926988</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>65805.34318291309</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.0297515476</v>
+        <v>53689.36553183995</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579255</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579255</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
         <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274679.6214727547</v>
+        <v>-325149.1595182762</v>
       </c>
       <c r="C6" t="n">
-        <v>-132488.3208130449</v>
+        <v>-101589.5718322049</v>
       </c>
       <c r="D6" t="n">
-        <v>-151754.7982485088</v>
+        <v>-101589.571832205</v>
       </c>
       <c r="E6" t="n">
-        <v>-109748.6678430014</v>
+        <v>-69216.21447297768</v>
       </c>
       <c r="F6" t="n">
-        <v>-127354.1332083824</v>
+        <v>-126998.7672552642</v>
       </c>
       <c r="G6" t="n">
-        <v>-13737.10728451115</v>
+        <v>-13760.33162389365</v>
       </c>
       <c r="H6" t="n">
-        <v>-13737.107284511</v>
+        <v>-13760.33162389365</v>
       </c>
       <c r="I6" t="n">
-        <v>-13737.10728451089</v>
+        <v>-13760.33162389363</v>
       </c>
       <c r="J6" t="n">
-        <v>-124751.5726295012</v>
+        <v>-188411.6803415998</v>
       </c>
       <c r="K6" t="n">
-        <v>-13737.10728451102</v>
+        <v>-13760.33162389364</v>
       </c>
       <c r="L6" t="n">
-        <v>-40297.32203893399</v>
+        <v>-13760.33162389365</v>
       </c>
       <c r="M6" t="n">
-        <v>-119184.2485833635</v>
+        <v>-85054.5901862974</v>
       </c>
       <c r="N6" t="n">
-        <v>-106005.3313252818</v>
+        <v>-105681.7062979845</v>
       </c>
       <c r="O6" t="n">
+        <v>-23255.19327001774</v>
+      </c>
+      <c r="P6" t="n">
         <v>-23255.19327001776</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-23255.19327001802</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
         <v>16.23571033874737</v>
@@ -26725,7 +26725,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>529.2391970873864</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.727463018875</v>
+        <v>883.048775194736</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>104.9433395672821</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.4882659314886</v>
+        <v>215.5335685868791</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658703</v>
+        <v>395.2117281900093</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672821</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314886</v>
+        <v>215.5335685868791</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8563329288482</v>
+        <v>336.5350207529868</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672821</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314886</v>
+        <v>215.5335685868791</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658703</v>
+        <v>395.2117281900093</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>122.0264913208415</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>65.46385107113946</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35.26741168730605</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>248.5691704774792</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>392.6220876429558</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>226.4723296792263</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94.27734399866608</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>322.0846479917802</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>195.5265377684437</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>173.3818350719603</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-7.735717982240882e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.651633095165207e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.761021455128988e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.740403040664429e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>426.581101155106</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>529.2391970873864</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873864</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>149.0417929543175</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>529.2391970873864</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873864</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35343,13 +35343,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>338.3796477275303</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>339.1339570349759</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.727463018875</v>
+        <v>608.1566476745747</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188749</v>
+        <v>883.048775194736</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157527</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>903.3699580700795</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465049</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924961045</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36054,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352469</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36358,13 +36358,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,10 +36373,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,19 +36841,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033059</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37549,22 +37549,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>594.5246497545859</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.1274021209001</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.7230603926092</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926092</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778282</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033062</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
